--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43653,6 +43653,41 @@
         <v>4109200</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>26656400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43688,6 +43688,41 @@
         <v>26656400</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>13065200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43723,6 +43723,41 @@
         <v>13065200</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>24210700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43758,6 +43758,41 @@
         <v>24210700</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>13883700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43793,6 +43793,41 @@
         <v>13883700</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>17895100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43828,6 +43828,41 @@
         <v>17895100</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>12173100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43863,6 +43863,41 @@
         <v>12173100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11975300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43898,6 +43898,41 @@
         <v>11975300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>25221700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43933,6 +43933,41 @@
         <v>25221700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>10532600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43968,6 +43968,41 @@
         <v>10532600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>21236900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44003,6 +44003,41 @@
         <v>21236900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11899300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44038,6 +44038,41 @@
         <v>11899300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>20680100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44073,6 +44073,76 @@
         <v>20680100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>9030500</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>13987100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44143,6 +44143,76 @@
         <v>13987100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>14037600</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>23537300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44213,6 +44213,41 @@
         <v>23537300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7397100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44248,6 +44248,41 @@
         <v>7397100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>30132500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44283,6 +44283,41 @@
         <v>30132500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>53621400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44318,6 +44318,41 @@
         <v>53621400</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10329800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44353,6 +44353,76 @@
         <v>10329800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>15819600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>14557900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44423,6 +44423,41 @@
         <v>14557900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4430300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44458,6 +44458,41 @@
         <v>4430300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3893800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1939"/>
+  <dimension ref="A1:I1940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69133,6 +69133,41 @@
         <v>3893800</v>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1940" t="n">
+        <v>2647000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1940"/>
+  <dimension ref="A1:I1941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69168,6 +69168,41 @@
         <v>2647000</v>
       </c>
     </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1941" t="n">
+        <v>5551400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1941"/>
+  <dimension ref="A1:I1942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69203,6 +69203,41 @@
         <v>5551400</v>
       </c>
     </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1942" t="n">
+        <v>1079100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1942"/>
+  <dimension ref="A1:I1943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69238,6 +69238,41 @@
         <v>1079100</v>
       </c>
     </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1943" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1943" t="n">
+        <v>1622600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1943"/>
+  <dimension ref="A1:I1944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69273,6 +69273,41 @@
         <v>1622600</v>
       </c>
     </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1944" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1944" t="n">
+        <v>1136200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1944"/>
+  <dimension ref="A1:I1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69308,6 +69308,41 @@
         <v>1136200</v>
       </c>
     </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1945" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1945" t="n">
+        <v>1157400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1945"/>
+  <dimension ref="A1:I1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69343,6 +69343,41 @@
         <v>1157400</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1946" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1946" t="n">
+        <v>632900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1946"/>
+  <dimension ref="A1:I1947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69378,6 +69378,41 @@
         <v>632900</v>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1947" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1947" t="n">
+        <v>1480900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1947"/>
+  <dimension ref="A1:I1948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69413,6 +69413,41 @@
         <v>1480900</v>
       </c>
     </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1948" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1948" t="n">
+        <v>1099500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1948"/>
+  <dimension ref="A1:I1949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69448,6 +69448,41 @@
         <v>1099500</v>
       </c>
     </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1949" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>1286600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1949"/>
+  <dimension ref="A1:I1950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69483,6 +69483,41 @@
         <v>1286600</v>
       </c>
     </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1950" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1950" t="n">
+        <v>760500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1950"/>
+  <dimension ref="A1:I1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69518,6 +69518,41 @@
         <v>760500</v>
       </c>
     </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1951" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1951" t="n">
+        <v>3334300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1951"/>
+  <dimension ref="A1:I1952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69553,6 +69553,41 @@
         <v>3334300</v>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1952" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1952" t="n">
+        <v>3500200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1952"/>
+  <dimension ref="A1:I1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69588,6 +69588,41 @@
         <v>3500200</v>
       </c>
     </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1953" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1953" t="n">
+        <v>1215500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1953"/>
+  <dimension ref="A1:I1954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69623,6 +69623,41 @@
         <v>1215500</v>
       </c>
     </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1954" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1954" t="n">
+        <v>507800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1954"/>
+  <dimension ref="A1:I1955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69658,6 +69658,41 @@
         <v>507800</v>
       </c>
     </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1955" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1955" t="n">
+        <v>851900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1955"/>
+  <dimension ref="A1:I1956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69693,6 +69693,41 @@
         <v>851900</v>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1956" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1956" t="n">
+        <v>1732900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1956"/>
+  <dimension ref="A1:I1957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69728,6 +69728,41 @@
         <v>1732900</v>
       </c>
     </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1957" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1957" t="n">
+        <v>1702800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1957"/>
+  <dimension ref="A1:I1958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69763,6 +69763,41 @@
         <v>1702800</v>
       </c>
     </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1958" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1958" t="n">
+        <v>1089900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1958"/>
+  <dimension ref="A1:I1959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69798,6 +69798,41 @@
         <v>1089900</v>
       </c>
     </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1959" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1959" t="n">
+        <v>690300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1959"/>
+  <dimension ref="A1:I1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69833,6 +69833,41 @@
         <v>690300</v>
       </c>
     </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1960" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1960" t="n">
+        <v>633200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1960"/>
+  <dimension ref="A1:I1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69868,6 +69868,41 @@
         <v>633200</v>
       </c>
     </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1961" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1961" t="n">
+        <v>1200100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1961"/>
+  <dimension ref="A1:I1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69903,6 +69903,41 @@
         <v>1200100</v>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>504000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1962"/>
+  <dimension ref="A1:I1963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69938,6 +69938,41 @@
         <v>504000</v>
       </c>
     </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>828100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1963"/>
+  <dimension ref="A1:I1964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69973,6 +69973,41 @@
         <v>828100</v>
       </c>
     </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1964" t="n">
+        <v>834900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1964"/>
+  <dimension ref="A1:I1966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70008,6 +70008,76 @@
         <v>834900</v>
       </c>
     </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>834800</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>706500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1966"/>
+  <dimension ref="A1:I1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70078,6 +70078,41 @@
         <v>706500</v>
       </c>
     </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>1111500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1967"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70113,6 +70113,111 @@
         <v>1111500</v>
       </c>
     </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1968" t="n">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>4500900</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>23590900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70218,6 +70218,41 @@
         <v>23590900</v>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>16137700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70253,6 +70253,41 @@
         <v>16137700</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>3863300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0167.xlsx
+++ b/data/0167.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70288,6 +70288,111 @@
         <v>3863300</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>5018600</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>3629000</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>MCLEAN</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>5058600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
